--- a/5- Evaluation & Choix/Standard/Evaluation SSPEC ROI.xlsx
+++ b/5- Evaluation & Choix/Standard/Evaluation SSPEC ROI.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slifer\Documents\GitHub\Projects\PLD-SPIE\5- Evaluation &amp; Choix\Standard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="612" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
-    <sheet name="Récap" sheetId="1" r:id="rId4"/>
-    <sheet name="Simulation" sheetId="2" r:id="rId5"/>
-    <sheet name="Data" sheetId="3" r:id="rId6"/>
+    <sheet name="Récap" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulation" sheetId="2" r:id="rId2"/>
+    <sheet name="Data" sheetId="3" r:id="rId3"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>Projet Longue Durée en SI</t>
   </si>
@@ -232,12 +240,6 @@
     <t>Augmentation du CA Maintenance de 1,5%</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>CA Maintenance</t>
-  </si>
-  <si>
     <t>31, Montant du retour sur investissement (ROI)</t>
   </si>
   <si>
@@ -282,8 +284,6 @@
   <si>
     <t>33. De la relation avec les partenaires (chantiers, ..)</t>
   </si>
-  <si/>
-  <si/>
   <si>
     <t>CUMULE</t>
   </si>
@@ -329,7 +329,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="24"/>
         <rFont val="Times New Roman"/>
@@ -343,25 +343,22 @@
   <si>
     <t>http://www.verif.com/bilans-gratuits/SPIE-SUD-EST-440055861/</t>
   </si>
+  <si>
+    <t>4 postes peu qualifiés (25k)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
     </font>
     <font>
       <sz val="10"/>
@@ -369,24 +366,19 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -397,7 +389,7 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Times New Roman"/>
@@ -408,33 +400,12 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="17"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="18"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="18"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="24"/>
       <name val="Times New Roman"/>
@@ -472,7 +443,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -961,297 +932,262 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="99">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="9" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="5" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,98 +1197,131 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffff99"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="ff2c2c2c"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff969696"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ff595959"/>
-      <rgbColor rgb="ff4f81bd"/>
-      <rgbColor rgb="ffc0504d"/>
-      <rgbColor rgb="ff9bbb59"/>
-      <rgbColor rgb="ff4bacc6"/>
-      <rgbColor rgb="ffdaeef3"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FF2C2C2C"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FF595959"/>
+      <rgbColor rgb="FF4F81BD"/>
+      <rgbColor rgb="FFC0504D"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="FF4BACC6"/>
+      <rgbColor rgb="FFDAEEF3"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1" i="0" strike="noStrike" sz="1800" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Verdana"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" i="0" strike="noStrike" sz="1800" u="none">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Verdana"/>
-              </a:rPr>
-              <a:t>Titre du graphique</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.407921"/>
-          <c:y val="0.005"/>
-          <c:w val="0.184158"/>
-          <c:h val="0.0856644"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="1"/>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.118699"/>
-          <c:y val="0.0856644"/>
-          <c:w val="0.875478"/>
-          <c:h val="0.696687"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -1361,8 +1330,9 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data'!$N$6</c:f>
+              <c:f>Data!$N$6</c:f>
               <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Resultat Net (Gains)</c:v>
                 </c:pt>
@@ -1370,60 +1340,129 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4F81BD"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.9301079633087099E-2"/>
+                  <c:y val="-1.7953809438741624E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0219637493766887E-2"/>
+                  <c:y val="5.3155332023287665E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.5128817660679013E-2"/>
+                  <c:y val="2.4068653721948611E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.3236425343739244E-2"/>
+                  <c:y val="-8.7761837361952852E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="4F81BD"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;" sourceLinked="0"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="404040"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="900" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1434,11 +1473,32 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Data'!$M$7:$M$17</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Data!$M$7:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
@@ -1473,46 +1533,47 @@
                 <c:pt idx="10">
                   <c:v>2026</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data'!$N$7:$N$17</c:f>
+              <c:f>Data!$N$7:$N$17</c:f>
               <c:numCache>
+                <c:formatCode>" "* #\ ##0.00" € ";"-"* #\ ##0.00" € ";" "* "-"??" € "</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>567500.000000</c:v>
+                  <c:v>567500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1135000.000000</c:v>
+                  <c:v>1135000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1702500.000000</c:v>
+                  <c:v>1702500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2270000.000000</c:v>
+                  <c:v>2270000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2837500.000000</c:v>
+                  <c:v>2837500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3405000.000000</c:v>
+                  <c:v>3405000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3972500.000000</c:v>
+                  <c:v>3972500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4540000.000000</c:v>
+                  <c:v>4540000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5107500.000000</c:v>
+                  <c:v>5107500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5675000.000000</c:v>
+                  <c:v>5675000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6242500.000000</c:v>
+                  <c:v>6242500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,8 +1585,9 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data'!$O$6</c:f>
+              <c:f>Data!$O$6</c:f>
               <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Charge</c:v>
                 </c:pt>
@@ -1533,60 +1595,150 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="C0504D"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.6537752368582792E-2"/>
+                  <c:y val="5.3155332023287665E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.7401768077959328E-2"/>
+                  <c:y val="3.4402211503666756E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.0037997827591138E-2"/>
+                  <c:y val="2.8584875843399211E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.4947177994503267E-2"/>
+                  <c:y val="1.9858872352997707E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.3719882952775233E-2"/>
+                  <c:y val="2.5676208013265357E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="C0504D"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;" sourceLinked="0"/>
             <c:txPr>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="404040"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="900" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="404040"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Calibri"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="fr-FR"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -1597,11 +1749,32 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Data'!$M$7:$M$17</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Data!$M$7:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
@@ -1636,46 +1809,47 @@
                 <c:pt idx="10">
                   <c:v>2026</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data'!$O$7:$O$17</c:f>
+              <c:f>Data!$O$7:$O$17</c:f>
               <c:numCache>
+                <c:formatCode>" "* #\ ##0.00" € ";"-"* #\ ##0.00" € ";" "* "-"??" € "</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1278600.000000</c:v>
+                  <c:v>1278600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1599200.000000</c:v>
+                  <c:v>1599200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1919800.000000</c:v>
+                  <c:v>1919800</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2240400.000000</c:v>
+                  <c:v>2240400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2561000.000000</c:v>
+                  <c:v>2561000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2881600.000000</c:v>
+                  <c:v>2881600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3202200.000000</c:v>
+                  <c:v>3202200</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3522800.000000</c:v>
+                  <c:v>3522800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3843400.000000</c:v>
+                  <c:v>3843400</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4164000.000000</c:v>
+                  <c:v>4164000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4484600.000000</c:v>
+                  <c:v>4484600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1687,8 +1861,9 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data'!$P$6</c:f>
+              <c:f>Data!$P$6</c:f>
               <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Couts d'exploitation</c:v>
                 </c:pt>
@@ -1696,75 +1871,25 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:noFill/>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="9BBB59"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
-            <c:size val="4"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="000000">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-              <a:ln w="28575" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="9BBB59"/>
-                </a:solidFill>
-                <a:prstDash val="solid"/>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
           </c:marker>
           <c:dLbls>
-            <c:numFmt formatCode="&quot; &quot;* #,##0.00&quot; € &quot;;&quot;-&quot;* #,##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;" sourceLinked="0"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>'Data'!$M$7:$M$17</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>Data!$M$7:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>2016</c:v>
@@ -1799,130 +1924,150 @@
                 <c:pt idx="10">
                   <c:v>2026</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data'!$P$7:$P$17</c:f>
+              <c:f>Data!$P$7:$P$17</c:f>
               <c:numCache>
+                <c:formatCode>" "* #\ ##0.00" € ";"-"* #\ ##0.00" € ";" "* "-"??" € "</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320600.000000</c:v>
+                  <c:v>320600</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>336630.000000</c:v>
+                  <c:v>336630</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>353461.500000</c:v>
+                  <c:v>353461.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>371134.575000</c:v>
+                  <c:v>371134.57500000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="0"/>
-        <c:axId val="1"/>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="234951136"/>
+        <c:axId val="234952256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="0"/>
+        <c:axId val="234951136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:rPr>
-                  <a:t>Titre de catégorie</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="000000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
+            <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1"/>
+        <c:crossAx val="234952256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
-        <c:noMultiLvlLbl val="1"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1"/>
+        <c:axId val="234952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,145 +2075,758 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="12700" cap="flat">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="D9D9D9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:effectLst/>
-                    <a:latin typeface="Verdana"/>
-                  </a:rPr>
-                  <a:t>Titre de valeur</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
           <c:layout/>
-          <c:overlay val="1"/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot; &quot;* #\ ##0.00&quot; € &quot;;&quot;-&quot;* #\ ##0.00&quot; € &quot;;&quot; &quot;* &quot;-&quot;??&quot; € &quot;" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
-            <a:prstDash val="solid"/>
-            <a:miter lim="400000"/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="0"/>
+        <c:crossAx val="234951136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="1.75e+06"/>
-        <c:minorUnit val="875000"/>
       </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.322949"/>
-          <c:y val="0.971445"/>
-          <c:w val="0.441595"/>
-          <c:h val="0.0410548"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:layout/>
+      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln>
           <a:noFill/>
-          <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
       <c:txPr>
-        <a:bodyPr/>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0" i="0" strike="noStrike" sz="900" u="none">
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:srgbClr val="595959"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Calibri"/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="FFFFFF"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="D9D9D9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:prstDash val="solid"/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2077,23 +2835,25 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>753444</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>104448</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="-471932" y="-162208"/>
-        <a:ext cx="12945445" cy="4892349"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2103,7 +2863,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2295,7 +3055,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2304,7 +3064,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2313,7 +3073,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -2322,7 +3082,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2331,7 +3091,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2340,7 +3100,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2452,8 +3212,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -2461,14 +3221,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2487,7 +3247,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2495,7 +3255,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -2523,7 +3283,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2549,7 +3309,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2575,7 +3335,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2601,7 +3361,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2627,7 +3387,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2653,7 +3413,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2679,7 +3439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2705,7 +3465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2731,7 +3491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2744,9 +3504,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2762,7 +3528,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2781,7 +3547,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2807,7 +3573,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2833,7 +3599,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2859,7 +3625,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2885,7 +3651,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2911,7 +3677,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2937,7 +3703,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2963,7 +3729,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2989,7 +3755,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3015,7 +3781,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3028,9 +3794,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3043,7 +3815,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3062,7 +3834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3092,7 +3864,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3118,7 +3890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3144,7 +3916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3170,7 +3942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3196,7 +3968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3222,7 +3994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3248,7 +4020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3274,7 +4046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3300,7 +4072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3313,36 +4085,44 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV60"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="54.23046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.4609375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.15234375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="12.765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.23046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.84375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.3828125" style="1" customWidth="1"/>
     <col min="9" max="256" width="7" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1">
+    <row r="1" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3352,8 +4132,8 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" ht="24.6" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="7"/>
@@ -3364,8 +4144,8 @@
       <c r="G2" s="4"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="25.2" customHeight="1">
-      <c r="A3" t="s" s="11">
+    <row r="3" spans="1:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
@@ -3376,7 +4156,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" ht="13.8" customHeight="1">
+    <row r="4" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -3386,8 +4166,8 @@
       <c r="G4" s="4"/>
       <c r="H4" s="10"/>
     </row>
-    <row r="5" ht="13.8" customHeight="1">
-      <c r="A5" t="s" s="13">
+    <row r="5" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
@@ -3398,7 +4178,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" ht="16.05" customHeight="1">
+    <row r="6" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -3408,8 +4188,8 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="15">
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
@@ -3420,8 +4200,8 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="16">
+    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
@@ -3432,8 +4212,8 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="17">
+    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="5"/>
@@ -3444,8 +4224,8 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="17">
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="5"/>
@@ -3456,8 +4236,8 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="15">
+    <row r="11" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="5"/>
@@ -3468,7 +4248,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" ht="16" customHeight="1">
+    <row r="12" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -3478,30 +4258,30 @@
       <c r="G12" s="19"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" ht="25.5" customHeight="1">
-      <c r="A13" t="s" s="20">
+    <row r="13" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B13" t="s" s="21">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="22"/>
-      <c r="D13" t="s" s="21">
+      <c r="D13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E13" t="s" s="21">
+      <c r="E13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F13" t="s" s="21">
+      <c r="F13" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="G13" t="s" s="21">
+      <c r="G13" s="21" t="s">
         <v>13</v>
       </c>
       <c r="H13" s="23"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" t="s" s="24">
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="25"/>
@@ -3512,810 +4292,786 @@
       <c r="G14" s="26"/>
       <c r="H14" s="23"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="27">
+    <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s" s="28">
+      <c r="B15" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30">
+      <c r="C15" s="28"/>
+      <c r="D15" s="29">
         <v>10000</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="29">
         <v>3</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="30">
         <f>D15*E15</f>
         <v>30000</v>
       </c>
-      <c r="G15" t="s" s="32">
+      <c r="G15" s="31" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="23"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" t="s" s="28">
+    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30">
+      <c r="C16" s="28"/>
+      <c r="D16" s="29">
         <v>150</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="29">
         <v>200</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="30">
         <f>D16*E16</f>
         <v>30000</v>
       </c>
-      <c r="G16" s="34"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="23"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="35">
+    <row r="17" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B17" t="s" s="28">
+      <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30">
+      <c r="C17" s="28"/>
+      <c r="D17" s="29">
         <v>11000</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="29">
         <v>1</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="23"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="27">
+    <row r="18" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="B18" t="s" s="36">
+      <c r="B18" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="30">
+      <c r="C18" s="35"/>
+      <c r="D18" s="29">
         <v>9750</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="29">
         <v>14</v>
       </c>
-      <c r="F18" s="31">
-        <f>D18*E18</f>
+      <c r="F18" s="30">
+        <f t="shared" ref="F18:F23" si="0">D18*E18</f>
         <v>136500</v>
       </c>
-      <c r="G18" t="s" s="38">
+      <c r="G18" s="90" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="23"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" t="s" s="36">
+    <row r="19" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="86"/>
+      <c r="B19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="30">
+      <c r="C19" s="35"/>
+      <c r="D19" s="29">
         <v>9750</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="29">
         <v>13</v>
       </c>
-      <c r="F19" s="31">
-        <f>D19*E19</f>
+      <c r="F19" s="30">
+        <f t="shared" si="0"/>
         <v>126750</v>
       </c>
-      <c r="G19" s="40"/>
+      <c r="G19" s="91"/>
       <c r="H19" s="23"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" t="s" s="36">
+    <row r="20" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
+      <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="30">
+      <c r="C20" s="35"/>
+      <c r="D20" s="29">
         <v>9750</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="29">
         <v>11</v>
       </c>
-      <c r="F20" s="31">
-        <f>D20*E20</f>
+      <c r="F20" s="30">
+        <f t="shared" si="0"/>
         <v>107250</v>
       </c>
-      <c r="G20" s="40"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="23"/>
     </row>
-    <row r="21" ht="44.55" customHeight="1">
-      <c r="A21" s="42"/>
-      <c r="B21" t="s" s="36">
+    <row r="21" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="93"/>
+      <c r="B21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="30">
+      <c r="C21" s="35"/>
+      <c r="D21" s="29">
         <v>9750</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="29">
         <v>10</v>
       </c>
-      <c r="F21" s="31">
-        <f>D21*E21</f>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
         <v>97500</v>
       </c>
-      <c r="G21" s="43"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="23"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="27">
+    <row r="22" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="B22" t="s" s="36">
+      <c r="B22" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="30">
+      <c r="C22" s="35"/>
+      <c r="D22" s="29">
         <v>20000</v>
       </c>
-      <c r="E22" s="30">
+      <c r="E22" s="29">
         <v>1</v>
       </c>
-      <c r="F22" s="31">
-        <f>D22*E22</f>
+      <c r="F22" s="30">
+        <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G22" t="s" s="44">
+      <c r="G22" s="88" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="23"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" t="s" s="36">
+    <row r="23" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="30">
+      <c r="C23" s="35"/>
+      <c r="D23" s="29">
         <v>10000</v>
       </c>
-      <c r="E23" s="30">
+      <c r="E23" s="29">
         <v>1</v>
       </c>
-      <c r="F23" s="31">
-        <f>D23*E23</f>
+      <c r="F23" s="30">
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G23" s="43"/>
+      <c r="G23" s="89"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="35">
+    <row r="24" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="34"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="23"/>
     </row>
-    <row r="25" ht="81.55" customHeight="1">
-      <c r="A25" t="s" s="27">
+    <row r="25" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B25" t="s" s="28">
+      <c r="B25" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="45">
+      <c r="C25" s="28"/>
+      <c r="D25" s="36">
         <v>100</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="36">
         <v>400</v>
       </c>
-      <c r="F25" s="46">
+      <c r="F25" s="37">
         <f>D25*E25</f>
         <v>40000</v>
       </c>
-      <c r="G25" t="s" s="47">
+      <c r="G25" s="38" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="23"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" t="s" s="36">
+    <row r="26" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="87"/>
+      <c r="B26" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="30">
+      <c r="C26" s="35"/>
+      <c r="D26" s="29">
         <v>300</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="29">
         <f>600*2</f>
         <v>1200</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="30">
         <f>D26*E26</f>
         <v>360000</v>
       </c>
-      <c r="G26" t="s" s="32">
+      <c r="G26" s="31" t="s">
         <v>36</v>
       </c>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="35">
+    <row r="27" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" t="s" s="32">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31" t="s">
         <v>38</v>
       </c>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+    <row r="28" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="49">
+    <row r="29" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
       <c r="H29" s="23"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="27">
+    <row r="30" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="B30" t="s" s="36">
+      <c r="B30" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="30">
+      <c r="C30" s="35"/>
+      <c r="D30" s="29">
         <v>40000</v>
       </c>
-      <c r="E30" s="30">
+      <c r="E30" s="29">
         <v>1</v>
       </c>
-      <c r="F30" s="31">
+      <c r="F30" s="30">
         <f>D30*E30</f>
         <v>40000</v>
       </c>
-      <c r="G30" t="s" s="32">
+      <c r="G30" s="31" t="s">
         <v>42</v>
       </c>
       <c r="H30" s="23"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" s="33"/>
-      <c r="B31" t="s" s="36">
+    <row r="31" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
+      <c r="B31" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="30">
+      <c r="C31" s="35"/>
+      <c r="D31" s="29">
         <v>30000</v>
       </c>
-      <c r="E31" s="30">
+      <c r="E31" s="29">
         <v>1</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="30">
         <f>D31*E31</f>
         <v>30000</v>
       </c>
-      <c r="G31" t="s" s="32">
+      <c r="G31" s="31" t="s">
         <v>44</v>
       </c>
       <c r="H31" s="23"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" s="50"/>
-      <c r="B32" t="s" s="28">
+    <row r="32" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="30">
+      <c r="C32" s="28"/>
+      <c r="D32" s="29">
         <v>27000</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="29">
         <v>1</v>
       </c>
-      <c r="F32" s="31">
+      <c r="F32" s="30">
         <f>D32*E32</f>
         <v>27000</v>
       </c>
-      <c r="G32" t="s" s="32">
+      <c r="G32" s="31" t="s">
         <v>46</v>
       </c>
       <c r="H32" s="23"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" t="s" s="36">
+    <row r="33" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="30">
+      <c r="C33" s="35"/>
+      <c r="D33" s="29">
         <v>25000</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="29">
         <v>1</v>
       </c>
-      <c r="F33" s="31">
+      <c r="F33" s="30">
         <f>D33*E33</f>
         <v>25000</v>
       </c>
-      <c r="G33" t="s" s="32">
+      <c r="G33" s="31" t="s">
         <v>48</v>
       </c>
       <c r="H33" s="23"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" s="50"/>
-      <c r="B34" t="s" s="28">
+    <row r="34" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="30">
+      <c r="C34" s="28"/>
+      <c r="D34" s="29">
         <v>27000</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="29">
         <v>1</v>
       </c>
-      <c r="F34" s="31">
+      <c r="F34" s="30">
         <f>D34*E34</f>
         <v>27000</v>
       </c>
-      <c r="G34" t="s" s="32">
+      <c r="G34" s="31" t="s">
         <v>50</v>
       </c>
       <c r="H34" s="23"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" s="50"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="34"/>
+    <row r="35" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="23"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="27">
+    <row r="36" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="B36" t="s" s="36">
+      <c r="B36" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="30">
+      <c r="C36" s="35"/>
+      <c r="D36" s="29">
         <v>50000</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="29">
         <v>1</v>
       </c>
-      <c r="F36" s="31">
+      <c r="F36" s="30">
         <f>D36*E36</f>
         <v>50000</v>
       </c>
-      <c r="G36" t="s" s="32">
+      <c r="G36" s="31" t="s">
         <v>53</v>
       </c>
       <c r="H36" s="23"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" t="s" s="36">
+    <row r="37" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="87"/>
+      <c r="B37" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="30">
+      <c r="C37" s="35"/>
+      <c r="D37" s="29">
         <v>70000</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="29">
         <v>1</v>
       </c>
-      <c r="F37" s="31">
+      <c r="F37" s="30">
         <f>D37*E37</f>
         <v>70000</v>
       </c>
-      <c r="G37" s="34"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="23"/>
     </row>
-    <row r="38" ht="37.55" customHeight="1">
-      <c r="A38" t="s" s="35">
+    <row r="38" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="B38" t="s" s="36">
+      <c r="B38" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="30">
+      <c r="C38" s="35"/>
+      <c r="D38" s="29">
         <f>21*12</f>
         <v>252</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="29">
         <v>200</v>
       </c>
-      <c r="F38" s="31">
+      <c r="F38" s="30">
         <f>D38*E38</f>
         <v>50400</v>
       </c>
-      <c r="G38" t="s" s="51">
+      <c r="G38" s="42" t="s">
         <v>57</v>
       </c>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" s="52"/>
-      <c r="B39" t="s" s="28">
+    <row r="39" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="98"/>
+      <c r="B39" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="30">
+      <c r="C39" s="28"/>
+      <c r="D39" s="29">
         <f>100</f>
         <v>100</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="29">
         <v>12</v>
       </c>
-      <c r="F39" s="31">
+      <c r="F39" s="30">
         <f>E39*D39</f>
         <v>1200</v>
       </c>
-      <c r="G39" t="s" s="32">
+      <c r="G39" s="31" t="s">
         <v>59</v>
       </c>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="35">
+    <row r="40" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="23"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" s="48"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
+    <row r="41" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
       <c r="H41" s="23"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="49">
+    <row r="42" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="30"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="53"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="43"/>
       <c r="H42" s="23"/>
     </row>
-    <row r="43" ht="15.55" customHeight="1">
-      <c r="A43" t="s" s="27">
+    <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="94" t="s">
         <v>62</v>
       </c>
-      <c r="B43" t="s" s="54">
+      <c r="B43" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="83"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="44"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" ht="24.75" customHeight="1">
-      <c r="A44" s="39"/>
-      <c r="B44" t="s" s="54">
+    <row r="44" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="95"/>
+      <c r="B44" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="55"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="57"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="84"/>
       <c r="F44" s="23"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" ht="15.55" customHeight="1">
-      <c r="A45" s="39"/>
-      <c r="B45" t="s" s="54">
+    <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="95"/>
+      <c r="B45" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="55"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="57"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="83"/>
+      <c r="E45" s="84"/>
       <c r="F45" s="23"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" ht="15.55" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" t="s" s="54">
+    <row r="46" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="95"/>
+      <c r="B46" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="59"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="83"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" t="s" s="54">
+    <row r="47" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="95"/>
+      <c r="B47" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="55"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="31">
+      <c r="C47" s="82"/>
+      <c r="D47" s="83"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="30">
         <v>100000</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" t="s" s="54">
+    <row r="48" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="95"/>
+      <c r="B48" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="55"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="31">
+      <c r="C48" s="82"/>
+      <c r="D48" s="83"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="30">
         <v>100000</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" ht="15.55" customHeight="1">
-      <c r="A49" s="33"/>
-      <c r="B49" t="s" s="54">
+    <row r="49" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="95"/>
+      <c r="B49" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="55"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="60"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" ht="26.55" customHeight="1">
-      <c r="A50" s="50"/>
-      <c r="B50" t="s" s="61">
+    <row r="50" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="96"/>
+      <c r="B50" s="77" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="64"/>
-      <c r="F50" s="65">
-        <f>0.015*F52</f>
-        <v>367500.0000000001</v>
-      </c>
-      <c r="G50" t="s" s="66">
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="47">
+        <f>367500</f>
+        <v>367500</v>
+      </c>
+      <c r="G50" s="48" t="s">
         <v>71</v>
       </c>
       <c r="H50" s="23"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" s="52"/>
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="30"/>
-      <c r="E51" t="s" s="36">
+    <row r="51" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F51" s="31">
-        <v>350000000</v>
-      </c>
-      <c r="G51" s="23"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" s="52"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="30"/>
-      <c r="E52" t="s" s="36">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="49"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="F52" s="31">
-        <f>0.07*F51</f>
-        <v>24500000</v>
-      </c>
-      <c r="G52" s="23"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" t="s" s="35">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="50"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="23"/>
-    </row>
-    <row r="54" ht="24.75" customHeight="1">
-      <c r="A54" t="s" s="35">
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="68"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" s="69"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="70"/>
-      <c r="D55" s="70"/>
-      <c r="E55" s="70"/>
-      <c r="F55" s="71"/>
-      <c r="G55" s="71"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="20">
+    <row r="55" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="73"/>
-      <c r="F56" t="s" s="74">
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="G56" s="75"/>
+      <c r="G55" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>80</v>
+      </c>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" ht="26.55" customHeight="1">
-      <c r="A57" t="s" s="76">
-        <v>78</v>
-      </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
-      <c r="F57" t="s" s="51">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="51">
-        <v>80</v>
+    <row r="57" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G57" s="31" t="s">
+        <v>83</v>
       </c>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" ht="16" customHeight="1">
-      <c r="A58" t="s" s="76">
-        <v>81</v>
-      </c>
-      <c r="B58" s="79"/>
-      <c r="C58" s="79"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" t="s" s="32">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s" s="32">
-        <v>82</v>
-      </c>
+    <row r="58" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" ht="16" customHeight="1">
-      <c r="A59" t="s" s="76">
-        <v>83</v>
-      </c>
-      <c r="B59" s="79"/>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" t="s" s="32">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s" s="32">
+    <row r="59" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
         <v>85</v>
       </c>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
       <c r="H59" s="23"/>
     </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="35">
+    <row r="60" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="79"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
       <c r="H60" s="23"/>
     </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" t="s" s="35">
-        <v>87</v>
-      </c>
-      <c r="B61" s="79"/>
-      <c r="C61" s="79"/>
-      <c r="D61" s="79"/>
-      <c r="E61" s="79"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="23"/>
-    </row>
-    <row r="62" ht="16" customHeight="1">
-      <c r="A62" t="s" s="35">
-        <v>88</v>
-      </c>
-      <c r="B62" s="79"/>
-      <c r="C62" s="79"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="23"/>
-    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B45:E45"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A43:A49"/>
-    <mergeCell ref="G22:G23"/>
+  <mergeCells count="18">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A38:A39"/>
     <mergeCell ref="G18:G21"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
@@ -4323,54 +5079,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="256" width="10" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Q31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV31"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6:P17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.625" defaultRowHeight="13.2" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="6.61328125" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.625" style="80" customWidth="1"/>
-    <col min="2" max="2" width="6.625" style="80" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="80" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="80" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="80" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="80" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="80" customWidth="1"/>
-    <col min="8" max="8" width="10.375" style="80" customWidth="1"/>
-    <col min="9" max="9" width="17.125" style="80" customWidth="1"/>
-    <col min="10" max="10" width="6.625" style="80" customWidth="1"/>
-    <col min="11" max="11" width="6.625" style="80" customWidth="1"/>
-    <col min="12" max="12" width="7.875" style="80" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="80" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="80" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="80" customWidth="1"/>
-    <col min="16" max="16" width="15.125" style="80" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="80" customWidth="1"/>
-    <col min="18" max="256" width="6.625" style="80" customWidth="1"/>
+    <col min="1" max="4" width="6.61328125" style="62" customWidth="1"/>
+    <col min="5" max="5" width="9.3828125" style="62" customWidth="1"/>
+    <col min="6" max="6" width="7.84375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="14.84375" style="62" customWidth="1"/>
+    <col min="8" max="8" width="10.3828125" style="62" customWidth="1"/>
+    <col min="9" max="9" width="17.15234375" style="62" customWidth="1"/>
+    <col min="10" max="11" width="6.61328125" style="62" customWidth="1"/>
+    <col min="12" max="12" width="7.84375" style="62" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" style="62" customWidth="1"/>
+    <col min="14" max="14" width="10.3828125" style="62" customWidth="1"/>
+    <col min="15" max="15" width="17.15234375" style="62" customWidth="1"/>
+    <col min="16" max="16" width="15.15234375" style="62" customWidth="1"/>
+    <col min="17" max="256" width="6.61328125" style="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.55" customHeight="1">
+    <row r="1" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -4389,7 +5142,7 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" ht="15.55" customHeight="1">
+    <row r="2" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -4408,7 +5161,7 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" ht="15.55" customHeight="1">
+    <row r="3" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4427,7 +5180,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" ht="16" customHeight="1">
+    <row r="4" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4440,15 +5193,15 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" t="s" s="15">
-        <v>91</v>
+      <c r="M4" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" ht="17" customHeight="1">
+    <row r="5" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4461,309 +5214,309 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" ht="17.5" customHeight="1">
+    <row r="6" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="82"/>
-      <c r="M6" t="s" s="83">
-        <v>92</v>
-      </c>
-      <c r="N6" t="s" s="83">
-        <v>93</v>
-      </c>
-      <c r="O6" t="s" s="83">
-        <v>94</v>
-      </c>
-      <c r="P6" t="s" s="83">
-        <v>95</v>
-      </c>
-      <c r="Q6" s="84"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
+      <c r="L6" s="64"/>
+      <c r="M6" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q6" s="66"/>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="82"/>
-      <c r="F7" t="s" s="83">
+      <c r="E7" s="64"/>
+      <c r="F7" s="65" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="I7" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="G7" t="s" s="83">
-        <v>93</v>
-      </c>
-      <c r="H7" t="s" s="83">
-        <v>94</v>
-      </c>
-      <c r="I7" t="s" s="83">
-        <v>96</v>
-      </c>
-      <c r="J7" s="84"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="85">
+      <c r="L7" s="64"/>
+      <c r="M7" s="67">
         <v>2016</v>
       </c>
-      <c r="N7" s="86">
+      <c r="N7" s="68">
         <f>L20</f>
         <v>567500</v>
       </c>
-      <c r="O7" s="86">
+      <c r="O7" s="68">
         <f>H18+L18</f>
         <v>1278600</v>
       </c>
-      <c r="P7" s="86">
+      <c r="P7" s="68">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q7" s="84"/>
-    </row>
-    <row r="8" ht="17.5" customHeight="1">
+      <c r="Q7" s="66"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="85">
+      <c r="E8" s="64"/>
+      <c r="F8" s="67">
         <v>2016</v>
       </c>
-      <c r="G8" s="86">
+      <c r="G8" s="68">
         <v>6500</v>
       </c>
-      <c r="H8" s="86">
+      <c r="H8" s="68">
         <f>H18+L18</f>
         <v>1278600</v>
       </c>
-      <c r="I8" s="86">
+      <c r="I8" s="68">
         <f>350000*7%</f>
-        <v>24500</v>
-      </c>
-      <c r="J8" s="84"/>
+        <v>24500.000000000004</v>
+      </c>
+      <c r="J8" s="66"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="87">
+      <c r="L8" s="64"/>
+      <c r="M8" s="69">
         <v>2017</v>
       </c>
-      <c r="N8" s="88">
+      <c r="N8" s="70">
         <f>N7+L20</f>
         <v>1135000</v>
       </c>
-      <c r="O8" s="88">
+      <c r="O8" s="70">
         <f>O7+L18</f>
         <v>1599200</v>
       </c>
-      <c r="P8" s="88">
+      <c r="P8" s="70">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q8" s="84"/>
-    </row>
-    <row r="9" ht="17" customHeight="1">
+      <c r="Q8" s="66"/>
+    </row>
+    <row r="9" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="87">
+      <c r="E9" s="64"/>
+      <c r="F9" s="69">
         <v>2017</v>
       </c>
-      <c r="G9" s="88">
+      <c r="G9" s="70">
         <f>G8*15%+G8</f>
         <v>7475</v>
       </c>
-      <c r="H9" s="88">
+      <c r="H9" s="70">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="I9" s="88">
+      <c r="I9" s="70">
         <f>350000*9%</f>
         <v>31500</v>
       </c>
-      <c r="J9" s="84"/>
+      <c r="J9" s="66"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="82"/>
-      <c r="M9" s="89">
+      <c r="L9" s="64"/>
+      <c r="M9" s="71">
         <v>2018</v>
       </c>
-      <c r="N9" s="90">
+      <c r="N9" s="72">
         <f>N8+L20</f>
         <v>1702500</v>
       </c>
-      <c r="O9" s="90">
+      <c r="O9" s="72">
         <f>O8+L18</f>
         <v>1919800</v>
       </c>
-      <c r="P9" s="90">
+      <c r="P9" s="72">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q9" s="84"/>
-    </row>
-    <row r="10" ht="17" customHeight="1">
+      <c r="Q9" s="66"/>
+    </row>
+    <row r="10" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="89">
+      <c r="E10" s="64"/>
+      <c r="F10" s="71">
         <v>2018</v>
       </c>
-      <c r="G10" s="90">
+      <c r="G10" s="72">
         <f>G9*15%+G9</f>
         <v>8596.25</v>
       </c>
-      <c r="H10" s="90">
+      <c r="H10" s="72">
         <v>142600</v>
       </c>
-      <c r="I10" s="90">
+      <c r="I10" s="72">
         <f>350000*11%</f>
         <v>38500</v>
       </c>
-      <c r="J10" s="84"/>
+      <c r="J10" s="66"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="87">
+      <c r="L10" s="64"/>
+      <c r="M10" s="69">
         <v>2019</v>
       </c>
-      <c r="N10" s="88">
+      <c r="N10" s="70">
         <f>N9+L20</f>
         <v>2270000</v>
       </c>
-      <c r="O10" s="88">
+      <c r="O10" s="70">
         <f>O9+L18</f>
         <v>2240400</v>
       </c>
-      <c r="P10" s="88">
+      <c r="P10" s="70">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q10" s="84"/>
-    </row>
-    <row r="11" ht="17" customHeight="1">
+      <c r="Q10" s="66"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="87">
+      <c r="E11" s="64"/>
+      <c r="F11" s="69">
         <v>2019</v>
       </c>
-      <c r="G11" s="88">
+      <c r="G11" s="70">
         <f>G10*15%+G10</f>
         <v>9885.6875</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="70">
         <v>142600</v>
       </c>
-      <c r="I11" s="88">
+      <c r="I11" s="70">
         <f>350000*13%</f>
         <v>45500</v>
       </c>
-      <c r="J11" s="84"/>
+      <c r="J11" s="66"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="89">
+      <c r="L11" s="64"/>
+      <c r="M11" s="71">
         <v>2020</v>
       </c>
-      <c r="N11" s="90">
+      <c r="N11" s="72">
         <f>N10+L20</f>
         <v>2837500</v>
       </c>
-      <c r="O11" s="90">
+      <c r="O11" s="72">
         <f>O10+L18</f>
         <v>2561000</v>
       </c>
-      <c r="P11" s="90">
+      <c r="P11" s="72">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q11" s="84"/>
-    </row>
-    <row r="12" ht="17" customHeight="1">
+      <c r="Q11" s="66"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="89">
+      <c r="E12" s="64"/>
+      <c r="F12" s="71">
         <v>2020</v>
       </c>
-      <c r="G12" s="90">
+      <c r="G12" s="72">
         <f>G11*15%+G11</f>
         <v>11368.540625</v>
       </c>
-      <c r="H12" s="90">
+      <c r="H12" s="72">
         <v>142600</v>
       </c>
-      <c r="I12" s="90">
+      <c r="I12" s="72">
         <f>350000*15%</f>
         <v>52500</v>
       </c>
-      <c r="J12" s="84"/>
+      <c r="J12" s="66"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="87">
+      <c r="L12" s="64"/>
+      <c r="M12" s="69">
         <v>2021</v>
       </c>
-      <c r="N12" s="88">
+      <c r="N12" s="70">
         <f>N11+L20</f>
         <v>3405000</v>
       </c>
-      <c r="O12" s="88">
+      <c r="O12" s="70">
         <f>O11+L18</f>
         <v>2881600</v>
       </c>
-      <c r="P12" s="88">
+      <c r="P12" s="70">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q12" s="84"/>
-    </row>
-    <row r="13" ht="17" customHeight="1">
+      <c r="Q12" s="66"/>
+    </row>
+    <row r="13" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="89">
+      <c r="L13" s="64"/>
+      <c r="M13" s="71">
         <v>2022</v>
       </c>
-      <c r="N13" s="90">
+      <c r="N13" s="72">
         <f>N12+L20</f>
         <v>3972500</v>
       </c>
-      <c r="O13" s="90">
+      <c r="O13" s="72">
         <f>O12+L18</f>
         <v>3202200</v>
       </c>
-      <c r="P13" s="90">
+      <c r="P13" s="72">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q13" s="84"/>
-    </row>
-    <row r="14" ht="17" customHeight="1">
+      <c r="Q13" s="66"/>
+    </row>
+    <row r="14" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4775,25 +5528,25 @@
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="82"/>
-      <c r="M14" s="87">
+      <c r="L14" s="64"/>
+      <c r="M14" s="69">
         <v>2023</v>
       </c>
-      <c r="N14" s="88">
+      <c r="N14" s="70">
         <f>N13+L20</f>
         <v>4540000</v>
       </c>
-      <c r="O14" s="88">
+      <c r="O14" s="70">
         <f>O13+L18</f>
         <v>3522800</v>
       </c>
-      <c r="P14" s="88">
+      <c r="P14" s="70">
         <f>L18</f>
         <v>320600</v>
       </c>
-      <c r="Q14" s="84"/>
-    </row>
-    <row r="15" ht="17" customHeight="1">
+      <c r="Q14" s="66"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -4805,25 +5558,25 @@
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="89">
+      <c r="L15" s="64"/>
+      <c r="M15" s="71">
         <v>2024</v>
       </c>
-      <c r="N15" s="90">
+      <c r="N15" s="72">
         <f>N14+L20</f>
         <v>5107500</v>
       </c>
-      <c r="O15" s="90">
+      <c r="O15" s="72">
         <f>O14+L18</f>
         <v>3843400</v>
       </c>
-      <c r="P15" s="90">
+      <c r="P15" s="72">
         <f>P14*5%+P14</f>
         <v>336630</v>
       </c>
-      <c r="Q15" s="84"/>
-    </row>
-    <row r="16" ht="17" customHeight="1">
+      <c r="Q15" s="66"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -4835,25 +5588,25 @@
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="82"/>
-      <c r="M16" s="87">
+      <c r="L16" s="64"/>
+      <c r="M16" s="69">
         <v>2025</v>
       </c>
-      <c r="N16" s="88">
+      <c r="N16" s="70">
         <f>L20+N15</f>
         <v>5675000</v>
       </c>
-      <c r="O16" s="88">
+      <c r="O16" s="70">
         <f>O15+L18</f>
         <v>4164000</v>
       </c>
-      <c r="P16" s="88">
+      <c r="P16" s="70">
         <f>P15*5%+P15</f>
         <v>353461.5</v>
       </c>
-      <c r="Q16" s="84"/>
-    </row>
-    <row r="17" ht="17" customHeight="1">
+      <c r="Q16" s="66"/>
+    </row>
+    <row r="17" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -4865,54 +5618,54 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="82"/>
-      <c r="M17" s="89">
+      <c r="L17" s="64"/>
+      <c r="M17" s="71">
         <v>2026</v>
       </c>
-      <c r="N17" s="90">
+      <c r="N17" s="72">
         <f>L20+N16</f>
         <v>6242500</v>
       </c>
-      <c r="O17" s="90">
+      <c r="O17" s="72">
         <f>O16+L18</f>
         <v>4484600</v>
       </c>
-      <c r="P17" s="90">
+      <c r="P17" s="72">
         <f>P16*5%+P16</f>
-        <v>371134.575</v>
-      </c>
-      <c r="Q17" s="84"/>
-    </row>
-    <row r="18" ht="17" customHeight="1">
+        <v>371134.57500000001</v>
+      </c>
+      <c r="Q17" s="66"/>
+    </row>
+    <row r="18" spans="1:17" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-      <c r="G18" t="s" s="15">
-        <v>97</v>
-      </c>
-      <c r="H18" s="92">
-        <f>SUM('Récap'!F15:F27)</f>
+      <c r="G18" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="H18" s="74">
+        <f>SUM(Récap!F15:F27)</f>
         <v>958000</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" t="s" s="15">
-        <v>98</v>
-      </c>
-      <c r="K18" s="93"/>
-      <c r="L18" s="94">
-        <f>SUM('Récap'!F30:F40)</f>
+      <c r="J18" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K18" s="75"/>
+      <c r="L18" s="76">
+        <f>SUM(Récap!F30:F40)</f>
         <v>320600</v>
       </c>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
       <c r="Q18" s="5"/>
     </row>
-    <row r="19" ht="15.55" customHeight="1">
+    <row r="19" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4931,7 +5684,7 @@
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
+    <row r="20" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4941,12 +5694,12 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
-      <c r="J20" t="s" s="15">
-        <v>99</v>
+      <c r="J20" s="15" t="s">
+        <v>95</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="94">
-        <f>SUM('Récap'!F47:F50)</f>
+      <c r="L20" s="76">
+        <f>SUM(Récap!F47:F50)</f>
         <v>567500</v>
       </c>
       <c r="M20" s="5"/>
@@ -4955,7 +5708,7 @@
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
     </row>
-    <row r="21" ht="15.55" customHeight="1">
+    <row r="21" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -4974,7 +5727,7 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
     </row>
-    <row r="22" ht="15.55" customHeight="1">
+    <row r="22" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4993,15 +5746,15 @@
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
+    <row r="23" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" t="s" s="15">
-        <v>100</v>
+      <c r="G23" s="15" t="s">
+        <v>96</v>
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5014,15 +5767,15 @@
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
+    <row r="24" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" t="s" s="17">
-        <v>101</v>
+      <c r="G24" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5035,15 +5788,15 @@
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
+    <row r="25" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" t="s" s="17">
-        <v>102</v>
+      <c r="G25" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5056,7 +5809,7 @@
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" ht="15.55" customHeight="1">
+    <row r="26" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5075,7 +5828,7 @@
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
+    <row r="27" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -5086,8 +5839,8 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
-      <c r="K27" t="s" s="17">
-        <v>103</v>
+      <c r="K27" s="17" t="s">
+        <v>99</v>
       </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
@@ -5096,7 +5849,7 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
+    <row r="28" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -5107,8 +5860,8 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
-      <c r="K28" t="s" s="17">
-        <v>104</v>
+      <c r="K28" s="17" t="s">
+        <v>100</v>
       </c>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
@@ -5117,7 +5870,7 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
-    <row r="29" ht="15.55" customHeight="1">
+    <row r="29" spans="1:17" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -5128,8 +5881,8 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
-      <c r="K29" t="s" s="17">
-        <v>105</v>
+      <c r="K29" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
@@ -5138,7 +5891,7 @@
       <c r="P29" s="5"/>
       <c r="Q29" s="5"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
+    <row r="30" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -5149,8 +5902,8 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
-      <c r="K30" t="s" s="17">
-        <v>106</v>
+      <c r="K30" s="17" t="s">
+        <v>102</v>
       </c>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -5159,7 +5912,7 @@
       <c r="P30" s="5"/>
       <c r="Q30" s="5"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
+    <row r="31" spans="1:17" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -5170,8 +5923,8 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" t="s" s="17">
-        <v>107</v>
+      <c r="K31" s="17" t="s">
+        <v>103</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -5182,10 +5935,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K29" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="K29" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="landscape" pageOrder="downThenOver"/>
+  <pageSetup orientation="landscape"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/5- Evaluation & Choix/Standard/Evaluation SSPEC ROI.xlsx
+++ b/5- Evaluation & Choix/Standard/Evaluation SSPEC ROI.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="612" windowWidth="15960" windowHeight="18084"/>
+    <workbookView xWindow="0" yWindow="1188" windowWidth="15960" windowHeight="18084"/>
   </bookViews>
   <sheets>
     <sheet name="Récap" sheetId="1" r:id="rId1"/>
@@ -344,7 +344,7 @@
     <t>http://www.verif.com/bilans-gratuits/SPIE-SUD-EST-440055861/</t>
   </si>
   <si>
-    <t>4 postes peu qualifiés (25k)</t>
+    <t>3 postes peu qualifiés (25k)</t>
   </si>
 </sst>
 </file>
@@ -1135,45 +1135,12 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1189,6 +1156,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,6 +1289,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Retour sur investissement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> (ROI) : </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>solution spécifique</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1436,6 +1469,27 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8327245176827122E-2"/>
+                  <c:y val="-6.7401162551016205E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1543,37 +1597,37 @@
                 <c:formatCode>" "* #\ ##0.00" € ";"-"* #\ ##0.00" € ";" "* "-"??" € "</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>567500</c:v>
+                  <c:v>517500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1135000</c:v>
+                  <c:v>1035000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1702500</c:v>
+                  <c:v>1552500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2270000</c:v>
+                  <c:v>2070000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2837500</c:v>
+                  <c:v>2587500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3405000</c:v>
+                  <c:v>3105000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3972500</c:v>
+                  <c:v>3622500</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4540000</c:v>
+                  <c:v>4140000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5107500</c:v>
+                  <c:v>4657500</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5675000</c:v>
+                  <c:v>5175000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6242500</c:v>
+                  <c:v>5692500</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,17 +2035,42 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="234951136"/>
-        <c:axId val="234952256"/>
+        <c:axId val="221168944"/>
+        <c:axId val="221170064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="234951136"/>
+        <c:axId val="221168944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Année</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2059,7 +2138,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234952256"/>
+        <c:crossAx val="221170064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2067,7 +2146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="234952256"/>
+        <c:axId val="221170064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,6 +2167,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Montant</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
@@ -2149,7 +2253,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234951136"/>
+        <c:crossAx val="221168944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4107,7 +4211,7 @@
   <dimension ref="A1:IV60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4397,7 @@
       <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="77" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="27" t="s">
@@ -4316,7 +4420,7 @@
       <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
+      <c r="A16" s="78"/>
       <c r="B16" s="27" t="s">
         <v>18</v>
       </c>
@@ -4353,7 +4457,7 @@
       <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="77" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -4370,13 +4474,13 @@
         <f t="shared" ref="F18:F23" si="0">D18*E18</f>
         <v>136500</v>
       </c>
-      <c r="G18" s="90" t="s">
+      <c r="G18" s="84" t="s">
         <v>23</v>
       </c>
       <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
+      <c r="A19" s="87"/>
       <c r="B19" s="34" t="s">
         <v>24</v>
       </c>
@@ -4391,11 +4495,11 @@
         <f t="shared" si="0"/>
         <v>126750</v>
       </c>
-      <c r="G19" s="91"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="92"/>
+      <c r="A20" s="88"/>
       <c r="B20" s="34" t="s">
         <v>25</v>
       </c>
@@ -4410,11 +4514,11 @@
         <f t="shared" si="0"/>
         <v>107250</v>
       </c>
-      <c r="G20" s="91"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="23"/>
     </row>
     <row r="21" spans="1:8" ht="44.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
+      <c r="A21" s="89"/>
       <c r="B21" s="34" t="s">
         <v>26</v>
       </c>
@@ -4429,11 +4533,11 @@
         <f t="shared" si="0"/>
         <v>97500</v>
       </c>
-      <c r="G21" s="89"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="77" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="34" t="s">
@@ -4450,13 +4554,13 @@
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="G22" s="88" t="s">
+      <c r="G22" s="94" t="s">
         <v>29</v>
       </c>
       <c r="H22" s="23"/>
     </row>
     <row r="23" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="87"/>
+      <c r="A23" s="78"/>
       <c r="B23" s="34" t="s">
         <v>30</v>
       </c>
@@ -4471,7 +4575,7 @@
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="G23" s="89"/>
+      <c r="G23" s="86"/>
       <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,7 +4591,7 @@
       <c r="H24" s="23"/>
     </row>
     <row r="25" spans="1:8" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="77" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="27" t="s">
@@ -4510,7 +4614,7 @@
       <c r="H25" s="23"/>
     </row>
     <row r="26" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="87"/>
+      <c r="A26" s="78"/>
       <c r="B26" s="34" t="s">
         <v>35</v>
       </c>
@@ -4568,7 +4672,7 @@
       <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="77" t="s">
         <v>40</v>
       </c>
       <c r="B30" s="34" t="s">
@@ -4591,7 +4695,7 @@
       <c r="H30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
+      <c r="A31" s="78"/>
       <c r="B31" s="34" t="s">
         <v>43</v>
       </c>
@@ -4685,7 +4789,7 @@
       <c r="H35" s="23"/>
     </row>
     <row r="36" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="77" t="s">
         <v>51</v>
       </c>
       <c r="B36" s="34" t="s">
@@ -4708,7 +4812,7 @@
       <c r="H36" s="23"/>
     </row>
     <row r="37" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="87"/>
+      <c r="A37" s="78"/>
       <c r="B37" s="34" t="s">
         <v>54</v>
       </c>
@@ -4727,7 +4831,7 @@
       <c r="H37" s="23"/>
     </row>
     <row r="38" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="82" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="34" t="s">
@@ -4751,7 +4855,7 @@
       <c r="H38" s="23"/>
     </row>
     <row r="39" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="27" t="s">
         <v>58</v>
       </c>
@@ -4807,65 +4911,65 @@
       <c r="H42" s="23"/>
     </row>
     <row r="43" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="81" t="s">
+      <c r="B43" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C43" s="82"/>
-      <c r="D43" s="83"/>
-      <c r="E43" s="84"/>
+      <c r="C43" s="91"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="93"/>
       <c r="F43" s="44"/>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="95"/>
-      <c r="B44" s="81" t="s">
+      <c r="A44" s="80"/>
+      <c r="B44" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C44" s="82"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="84"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="23"/>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="81" t="s">
+      <c r="A45" s="80"/>
+      <c r="B45" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="82"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="84"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="23"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="95"/>
-      <c r="B46" s="81" t="s">
+      <c r="A46" s="80"/>
+      <c r="B46" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C46" s="82"/>
-      <c r="D46" s="83"/>
-      <c r="E46" s="84"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="45"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="95"/>
-      <c r="B47" s="81" t="s">
+      <c r="A47" s="80"/>
+      <c r="B47" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="82"/>
-      <c r="D47" s="83"/>
-      <c r="E47" s="84"/>
+      <c r="C47" s="91"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="30">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>104</v>
@@ -4873,15 +4977,15 @@
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="95"/>
-      <c r="B48" s="81" t="s">
+      <c r="A48" s="80"/>
+      <c r="B48" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="83"/>
-      <c r="E48" s="84"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="30">
-        <v>100000</v>
+        <v>75000</v>
       </c>
       <c r="G48" s="23" t="s">
         <v>104</v>
@@ -4889,25 +4993,25 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="95"/>
-      <c r="B49" s="81" t="s">
+      <c r="A49" s="80"/>
+      <c r="B49" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="83"/>
-      <c r="E49" s="84"/>
+      <c r="C49" s="91"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="46"/>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
     <row r="50" spans="1:8" ht="26.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="96"/>
-      <c r="B50" s="77" t="s">
+      <c r="A50" s="81"/>
+      <c r="B50" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="80"/>
+      <c r="C50" s="96"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="47">
         <f>367500</f>
         <v>367500</v>
@@ -5051,6 +5155,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B46:E46"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A43:A50"/>
     <mergeCell ref="A38:A39"/>
@@ -5067,8 +5173,6 @@
     <mergeCell ref="B50:E50"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B46:E46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
@@ -5082,7 +5186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5273,7 +5379,7 @@
       </c>
       <c r="N7" s="68">
         <f>L20</f>
-        <v>567500</v>
+        <v>517500</v>
       </c>
       <c r="O7" s="68">
         <f>H18+L18</f>
@@ -5313,7 +5419,7 @@
       </c>
       <c r="N8" s="70">
         <f>N7+L20</f>
-        <v>1135000</v>
+        <v>1035000</v>
       </c>
       <c r="O8" s="70">
         <f>O7+L18</f>
@@ -5354,7 +5460,7 @@
       </c>
       <c r="N9" s="72">
         <f>N8+L20</f>
-        <v>1702500</v>
+        <v>1552500</v>
       </c>
       <c r="O9" s="72">
         <f>O8+L18</f>
@@ -5394,7 +5500,7 @@
       </c>
       <c r="N10" s="70">
         <f>N9+L20</f>
-        <v>2270000</v>
+        <v>2070000</v>
       </c>
       <c r="O10" s="70">
         <f>O9+L18</f>
@@ -5434,7 +5540,7 @@
       </c>
       <c r="N11" s="72">
         <f>N10+L20</f>
-        <v>2837500</v>
+        <v>2587500</v>
       </c>
       <c r="O11" s="72">
         <f>O10+L18</f>
@@ -5474,7 +5580,7 @@
       </c>
       <c r="N12" s="70">
         <f>N11+L20</f>
-        <v>3405000</v>
+        <v>3105000</v>
       </c>
       <c r="O12" s="70">
         <f>O11+L18</f>
@@ -5504,7 +5610,7 @@
       </c>
       <c r="N13" s="72">
         <f>N12+L20</f>
-        <v>3972500</v>
+        <v>3622500</v>
       </c>
       <c r="O13" s="72">
         <f>O12+L18</f>
@@ -5534,7 +5640,7 @@
       </c>
       <c r="N14" s="70">
         <f>N13+L20</f>
-        <v>4540000</v>
+        <v>4140000</v>
       </c>
       <c r="O14" s="70">
         <f>O13+L18</f>
@@ -5564,7 +5670,7 @@
       </c>
       <c r="N15" s="72">
         <f>N14+L20</f>
-        <v>5107500</v>
+        <v>4657500</v>
       </c>
       <c r="O15" s="72">
         <f>O14+L18</f>
@@ -5594,7 +5700,7 @@
       </c>
       <c r="N16" s="70">
         <f>L20+N15</f>
-        <v>5675000</v>
+        <v>5175000</v>
       </c>
       <c r="O16" s="70">
         <f>O15+L18</f>
@@ -5624,7 +5730,7 @@
       </c>
       <c r="N17" s="72">
         <f>L20+N16</f>
-        <v>6242500</v>
+        <v>5692500</v>
       </c>
       <c r="O17" s="72">
         <f>O16+L18</f>
@@ -5700,7 +5806,7 @@
       <c r="K20" s="5"/>
       <c r="L20" s="76">
         <f>SUM(Récap!F47:F50)</f>
-        <v>567500</v>
+        <v>517500</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
